--- a/5.Other/Đề xuất mua hàng/Năm 2025/ĐỀ XUẤT CUNG CAP VAT TU SXBH_171025.xlsx
+++ b/5.Other/Đề xuất mua hàng/Năm 2025/ĐỀ XUẤT CUNG CAP VAT TU SXBH_171025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Đề xuất mua hàng\Năm 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EB1C32-1052-4C4D-8504-78934D2E570B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D176A09C-9466-4B5E-873C-8BA7E50507E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>BM.02-QT.10/ISO</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Đã nhận</t>
+  </si>
+  <si>
+    <t>https://chotroihn.vn/kim-cat-chan-linh-kien-pcafc-cao-cap-model-170</t>
+  </si>
+  <si>
+    <t>https://chotroihn.vn/kim-cat-chan-linh-kien-bosi</t>
+  </si>
+  <si>
+    <t>https://chotroihn.vn/thiec-han-asahi-60-0-6mm</t>
+  </si>
+  <si>
+    <t>https://chotroihn.vn/bo-2-nhip-gap-linh-kien-dien-tu-gooi-1-cong-1-thang</t>
   </si>
 </sst>
 </file>
@@ -334,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -373,58 +385,55 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,97 +1109,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="22"/>
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="27"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1222,7 +1231,7 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1261,7 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1291,7 @@
       <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1312,7 +1321,7 @@
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1342,7 +1351,7 @@
       <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
@@ -1372,7 +1381,7 @@
       <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1390,13 +1399,13 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
@@ -1411,50 +1420,50 @@
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
+      <c r="G17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
     </row>
     <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1473,10 +1482,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1489,28 +1498,28 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1529,71 +1538,103 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
     </row>
     <row r="35" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
     </row>
     <row r="36" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
     </row>
     <row r="38" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="N35:T36"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="I17:L17"/>
@@ -1610,18 +1651,16 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="B7:B13"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="N35:T36"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{26FE98CA-2C13-409F-A372-BE2D17B0884A}"/>
